--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_4_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>999921.8343897358</v>
+        <v>1016566.953693425</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111177</v>
+        <v>713587.7684111176</v>
       </c>
     </row>
     <row r="8">
@@ -656,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E2" t="n">
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F2" t="n">
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G2" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,10 +743,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>118.5628686044508</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.3312169516043</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C5" t="n">
         <v>241.0142888776591</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>14.84381815306945</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1032,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>184.6308886574542</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1096,10 +1098,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="T8" t="n">
-        <v>94.41048699370604</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>241.0142888776591</v>
@@ -1218,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>111.1032617613385</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>62.43486741948623</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>47.02492433367365</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1376,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>278.8265697844214</v>
       </c>
       <c r="I11" t="n">
-        <v>84.65566922272912</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1446,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1467,7 +1469,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1503,10 +1505,10 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>15.13518083054801</v>
       </c>
       <c r="V12" t="n">
-        <v>206.9982454879723</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>160.0903419479084</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>73.36175976093794</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1610,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>175.8455407222775</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>63.78513974917341</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
         <v>251.2985142370684</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1731,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>185.871356002388</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>94.12001078391332</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1780,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>18.12022702288997</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.06064116356406</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>117.3450705775783</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>86.65804289016231</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1926,10 +1928,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>113.4883178883723</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>4.231247891880686</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1938,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1977,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>98.68313739545457</v>
+        <v>99.78974769572881</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>23.52380904827409</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>80.43746417864021</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>114.1942888468236</v>
       </c>
       <c r="U21" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>194.7482750887511</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>39.1947906270704</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>263.5763095174818</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>63.65031255674068</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>10.44735232510933</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>120.3696041852723</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2463,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2497,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>73.3617597609376</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>39.19479062707047</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>89.98174747814551</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2612,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>80.43746417864021</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,16 +2642,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>127.9691057983843</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>78.54202280713804</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
         <v>225.9206407878966</v>
@@ -2697,10 +2699,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>16.16061859967738</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>157.7727335375556</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.0890042129126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>70.62611983656755</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>104.1189927826356</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2880,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>23.01715685184132</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>113.4883178883721</v>
       </c>
       <c r="U30" t="n">
         <v>225.9206407878966</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>98.68313739545452</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>405.7415719969023</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>63.65031255674091</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>30.1574396106729</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3114,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>113.4883178883723</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3162,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>181.7638782208678</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3238,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>39.19479062707047</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>38.97640474817464</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3269,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H35" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>137.9366457443517</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>95.20520959211112</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3342,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>30.1505659278275</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,10 +3398,10 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>114.1942888468236</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3408,10 +3410,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>39.19479062707046</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>106.0890042129126</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3506,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>63.65031255674062</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3563,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>22.19776833503735</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3585,22 +3587,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>115.7706951252668</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>67.51731269241161</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3645,7 +3647,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>73.36175976093796</v>
+        <v>165.6221850809705</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3740,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>101.7061019479484</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>70.62611983656772</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3831,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>41.32543356294242</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>141.2209508291587</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>73.36175976093796</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>98.68313739545468</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>125.5822957186518</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>85.67417889435382</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4059,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5439382344024476</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>81.12752273267807</v>
       </c>
       <c r="T45" t="n">
         <v>198.8939788055617</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4367,13 +4369,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>622.424473941237</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C3" t="n">
-        <v>447.97144466011</v>
+        <v>139.0416164480418</v>
       </c>
       <c r="D3" t="n">
-        <v>299.0370349988588</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>139.7995799934033</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>139.7995799934033</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>139.7995799934033</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>26.43044440098258</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,13 +4415,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y3" t="n">
-        <v>790.6398109613051</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
         <v>136.0777814360265</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4610,7 +4612,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193.7341723913397</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>581.8438274645554</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>432.9094178033041</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>432.9094178033041</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>286.3748598301891</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>147.6440344128046</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>34.27489882038388</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4650,19 +4652,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4680,16 +4682,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>777.5613083818946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>777.5613083818946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>569.7098081763618</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>361.9495094114078</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4744,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4829,7 +4831,7 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T8" t="n">
         <v>506.1786963984129</v>
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>481.7099827492369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>481.7099827492369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>481.7099827492369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>369.484465818592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4884,16 +4886,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W9" t="n">
-        <v>689.4702815141908</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>481.7099827492369</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4984,28 +4986,28 @@
         <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>503.7583553506521</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="C11" t="n">
-        <v>503.7583553506521</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="D11" t="n">
-        <v>503.7583553506521</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="E11" t="n">
-        <v>117.9701027524079</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="F11" t="n">
-        <v>117.9701027524079</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="G11" t="n">
-        <v>117.9701027524079</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="H11" t="n">
-        <v>117.9701027524079</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L11" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5063,7 +5065,7 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214177</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S11" t="n">
         <v>1311.402045381201</v>
@@ -5072,19 +5074,19 @@
         <v>1088.658125761969</v>
       </c>
       <c r="U11" t="n">
-        <v>834.8212426942227</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V11" t="n">
-        <v>503.7583553506521</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="W11" t="n">
-        <v>503.7583553506521</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="X11" t="n">
-        <v>503.7583553506521</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="Y11" t="n">
-        <v>503.7583553506521</v>
+        <v>503.7583553506526</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>735.8716796329404</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C12" t="n">
-        <v>735.8716796329404</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D12" t="n">
-        <v>586.9372699716891</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E12" t="n">
-        <v>427.6998149662337</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F12" t="n">
-        <v>281.1652569931186</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G12" t="n">
-        <v>142.7528837522889</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H12" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K12" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L12" t="n">
-        <v>147.3709770270844</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M12" t="n">
-        <v>546.7891136313474</v>
+        <v>869.8026208059058</v>
       </c>
       <c r="N12" t="n">
-        <v>948.4732699082806</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="O12" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P12" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
@@ -5151,19 +5153,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U12" t="n">
-        <v>944.9608164894781</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="V12" t="n">
-        <v>735.8716796329404</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="W12" t="n">
-        <v>735.8716796329404</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="X12" t="n">
-        <v>735.8716796329404</v>
+        <v>1157.875422507002</v>
       </c>
       <c r="Y12" t="n">
-        <v>735.8716796329404</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5221,28 +5223,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687505</v>
       </c>
       <c r="S13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="T13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U13" t="n">
-        <v>287.1438139656391</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>864.9944301706196</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="C14" t="n">
-        <v>864.9944301706196</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="D14" t="n">
-        <v>506.7287315638691</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="E14" t="n">
-        <v>506.7287315638691</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="F14" t="n">
-        <v>96.88875984982633</v>
+        <v>736.5455135865886</v>
       </c>
       <c r="G14" t="n">
-        <v>96.88875984982633</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H14" t="n">
-        <v>96.88875984982633</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011322</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P14" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q14" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S14" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T14" t="n">
-        <v>1508.970645214177</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U14" t="n">
-        <v>1255.133762146431</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V14" t="n">
-        <v>1255.133762146431</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="W14" t="n">
-        <v>1255.133762146431</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="X14" t="n">
-        <v>1255.133762146431</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="Y14" t="n">
-        <v>864.9944301706196</v>
+        <v>1146.385485300631</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>683.8880725083636</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="C15" t="n">
-        <v>509.4350432272366</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="D15" t="n">
         <v>360.5006335659854</v>
@@ -5352,55 +5354,55 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L15" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M15" t="n">
-        <v>546.7891136313474</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082806</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O15" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1455.464052945775</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.464052945775</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="V15" t="n">
-        <v>1267.715208498918</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="W15" t="n">
-        <v>1267.715208498918</v>
+        <v>455.5713515295342</v>
       </c>
       <c r="X15" t="n">
-        <v>1059.863708293386</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="Y15" t="n">
-        <v>852.1034095284317</v>
+        <v>360.5006335659854</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H16" t="n">
-        <v>199.7544622051772</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I16" t="n">
-        <v>50.76258537883297</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5455,31 +5457,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R16" t="n">
-        <v>361.2466016029501</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="S16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="T16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y16" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="C17" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="D17" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="E17" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="F17" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="G17" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975219</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975219</v>
@@ -5516,7 +5518,7 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L17" t="n">
         <v>519.4894913528326</v>
@@ -5537,28 +5539,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S17" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T17" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U17" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V17" t="n">
-        <v>1535.43291133088</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="W17" t="n">
-        <v>1182.664256060766</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="X17" t="n">
-        <v>809.1984977996857</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="Y17" t="n">
-        <v>419.059165823874</v>
+        <v>150.9897000805384</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>321.5470195745886</v>
+        <v>549.7496870371103</v>
       </c>
       <c r="C18" t="n">
-        <v>147.0939902934616</v>
+        <v>375.2966577559833</v>
       </c>
       <c r="D18" t="n">
-        <v>32.45932575975219</v>
+        <v>226.3622480947321</v>
       </c>
       <c r="E18" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="F18" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="G18" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384403</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K18" t="n">
-        <v>236.9655055809357</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L18" t="n">
-        <v>534.6972605625989</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M18" t="n">
-        <v>934.1153971668618</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N18" t="n">
-        <v>1335.799553443795</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O18" t="n">
-        <v>1622.966287987609</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
@@ -5625,19 +5627,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U18" t="n">
-        <v>1394.763620525088</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V18" t="n">
-        <v>1159.611512293345</v>
+        <v>1387.814179755867</v>
       </c>
       <c r="W18" t="n">
-        <v>905.3741555651434</v>
+        <v>1133.576823027665</v>
       </c>
       <c r="X18" t="n">
-        <v>697.5226553596106</v>
+        <v>925.7253228221323</v>
       </c>
       <c r="Y18" t="n">
-        <v>489.7623565946566</v>
+        <v>717.9650240571784</v>
       </c>
     </row>
     <row r="19">
@@ -5674,43 +5676,43 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
       </c>
       <c r="M19" t="n">
-        <v>187.2357570984439</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N19" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O19" t="n">
-        <v>332.2934283710736</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P19" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q19" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>132.1392625228376</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>132.1392625228376</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>32.45932575975219</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="W19" t="n">
-        <v>32.45932575975219</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="X19" t="n">
         <v>32.45932575975219</v>
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>401.4218427001639</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="C20" t="n">
-        <v>32.45932575975219</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="D20" t="n">
-        <v>32.45932575975219</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="E20" t="n">
-        <v>32.45932575975219</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="F20" t="n">
-        <v>32.45932575975219</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G20" t="n">
-        <v>32.45932575975219</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I20" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J20" t="n">
         <v>70.13987180521505</v>
       </c>
       <c r="K20" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
         <v>519.4894913528326</v>
@@ -5774,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1599.204864706524</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1599.204864706524</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1376.460945087292</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U20" t="n">
-        <v>1122.624062019546</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V20" t="n">
-        <v>791.5611746759756</v>
+        <v>1541.716324170801</v>
       </c>
       <c r="W20" t="n">
-        <v>791.5611746759756</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="X20" t="n">
-        <v>791.5611746759756</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.4218427001639</v>
+        <v>1188.947668900687</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>286.2477316137459</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H21" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I21" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
         <v>61.20822116384403</v>
       </c>
       <c r="K21" t="n">
-        <v>236.9655055809357</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L21" t="n">
-        <v>236.9655055809357</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M21" t="n">
-        <v>636.3836421851986</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N21" t="n">
-        <v>1038.067798462132</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O21" t="n">
-        <v>1361.08130563669</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1603.325054840698</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T21" t="n">
-        <v>1173.163483952</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U21" t="n">
-        <v>944.9608164894784</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V21" t="n">
-        <v>748.2453871069015</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W21" t="n">
-        <v>494.0080303786999</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X21" t="n">
-        <v>494.0080303786999</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y21" t="n">
-        <v>286.2477316137459</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J22" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5935,25 +5937,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U22" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V22" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W22" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X22" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y22" t="n">
-        <v>72.05002336285361</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>442.299297473795</v>
+        <v>298.698022242057</v>
       </c>
       <c r="C23" t="n">
-        <v>442.299297473795</v>
+        <v>298.698022242057</v>
       </c>
       <c r="D23" t="n">
-        <v>442.299297473795</v>
+        <v>298.698022242057</v>
       </c>
       <c r="E23" t="n">
-        <v>442.299297473795</v>
+        <v>298.698022242057</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975219</v>
+        <v>298.698022242057</v>
       </c>
       <c r="G23" t="n">
         <v>32.45932575975219</v>
@@ -5990,49 +5992,49 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K23" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1558.673042980801</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1558.673042980801</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V23" t="n">
-        <v>1558.673042980801</v>
+        <v>1038.066517576293</v>
       </c>
       <c r="W23" t="n">
-        <v>1205.904387710687</v>
+        <v>685.2978623061788</v>
       </c>
       <c r="X23" t="n">
-        <v>832.4386294496068</v>
+        <v>685.2978623061788</v>
       </c>
       <c r="Y23" t="n">
-        <v>442.299297473795</v>
+        <v>685.2978623061788</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>676.8255276810301</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C24" t="n">
-        <v>676.8255276810301</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D24" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E24" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F24" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G24" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H24" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I24" t="n">
         <v>32.45932575975219</v>
@@ -6069,13 +6071,13 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K24" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L24" t="n">
-        <v>505.9483651585071</v>
+        <v>256.6067387278474</v>
       </c>
       <c r="M24" t="n">
-        <v>905.3665017627701</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N24" t="n">
         <v>1057.709031609044</v>
@@ -6084,34 +6086,34 @@
         <v>1380.722538783602</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q24" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1374.066492846507</v>
+        <v>1333.878594172773</v>
       </c>
       <c r="U24" t="n">
-        <v>1374.066492846507</v>
+        <v>1105.675926710251</v>
       </c>
       <c r="V24" t="n">
-        <v>1138.914384614764</v>
+        <v>870.5238184785085</v>
       </c>
       <c r="W24" t="n">
-        <v>884.6770278865629</v>
+        <v>616.2864617503069</v>
       </c>
       <c r="X24" t="n">
-        <v>676.8255276810301</v>
+        <v>408.4349615447741</v>
       </c>
       <c r="Y24" t="n">
-        <v>676.8255276810301</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975219</v>
+        <v>1368.281799781722</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975219</v>
+        <v>1368.281799781722</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975219</v>
+        <v>1368.281799781722</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975219</v>
+        <v>1368.281799781722</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975219</v>
+        <v>1368.281799781722</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975219</v>
+        <v>1368.281799781722</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975219</v>
+        <v>1368.281799781722</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975219</v>
+        <v>1368.281799781722</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191285</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L25" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M25" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N25" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O25" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T25" t="n">
-        <v>321.6559039998486</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U25" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V25" t="n">
-        <v>32.45932575975219</v>
+        <v>1368.281799781722</v>
       </c>
       <c r="W25" t="n">
-        <v>32.45932575975219</v>
+        <v>1368.281799781722</v>
       </c>
       <c r="X25" t="n">
-        <v>32.45932575975219</v>
+        <v>1368.281799781722</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975219</v>
+        <v>1368.281799781722</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1236.366447923487</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="C26" t="n">
-        <v>867.4039309830757</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="D26" t="n">
-        <v>509.1382323763252</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="E26" t="n">
-        <v>123.349979778081</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="F26" t="n">
-        <v>123.349979778081</v>
+        <v>779.107697186644</v>
       </c>
       <c r="G26" t="n">
-        <v>123.349979778081</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H26" t="n">
-        <v>123.349979778081</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I26" t="n">
         <v>32.45932575975218</v>
@@ -6260,16 +6262,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="V26" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.716324170801</v>
       </c>
       <c r="W26" t="n">
-        <v>1622.966287987609</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="X26" t="n">
-        <v>1622.966287987609</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="Y26" t="n">
-        <v>1622.966287987609</v>
+        <v>1188.947668900687</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>489.7623565946564</v>
+        <v>271.0321573380744</v>
       </c>
       <c r="C27" t="n">
-        <v>489.7623565946564</v>
+        <v>271.0321573380744</v>
       </c>
       <c r="D27" t="n">
-        <v>489.7623565946564</v>
+        <v>271.0321573380744</v>
       </c>
       <c r="E27" t="n">
-        <v>489.7623565946564</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F27" t="n">
-        <v>360.5006335659854</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G27" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H27" t="n">
         <v>111.7947023326189</v>
@@ -6303,52 +6305,52 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K27" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L27" t="n">
-        <v>236.9655055809357</v>
+        <v>256.6067387278472</v>
       </c>
       <c r="M27" t="n">
-        <v>546.7891136313474</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N27" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O27" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1622.966287987609</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.966287987609</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U27" t="n">
-        <v>1394.763620525087</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V27" t="n">
-        <v>1159.611512293345</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W27" t="n">
-        <v>905.3741555651432</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X27" t="n">
-        <v>697.5226553596103</v>
+        <v>439.2474943581424</v>
       </c>
       <c r="Y27" t="n">
-        <v>489.7623565946564</v>
+        <v>439.2474943581424</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975218</v>
+        <v>1463.599890474927</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975218</v>
+        <v>1463.599890474927</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975218</v>
+        <v>1463.599890474927</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975218</v>
+        <v>1463.599890474927</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L28" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M28" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N28" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O28" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S28" t="n">
-        <v>139.6199360758255</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T28" t="n">
-        <v>139.6199360758255</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U28" t="n">
-        <v>139.6199360758255</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V28" t="n">
-        <v>139.6199360758255</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W28" t="n">
-        <v>139.6199360758255</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X28" t="n">
-        <v>139.6199360758255</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>472.7613576865958</v>
+        <v>506.5925424806039</v>
       </c>
       <c r="C29" t="n">
-        <v>103.7988407461841</v>
+        <v>137.6300255401922</v>
       </c>
       <c r="D29" t="n">
-        <v>103.7988407461841</v>
+        <v>137.6300255401922</v>
       </c>
       <c r="E29" t="n">
-        <v>103.7988407461841</v>
+        <v>137.6300255401922</v>
       </c>
       <c r="F29" t="n">
-        <v>103.7988407461841</v>
+        <v>137.6300255401922</v>
       </c>
       <c r="G29" t="n">
-        <v>32.45932575975218</v>
+        <v>137.6300255401922</v>
       </c>
       <c r="H29" t="n">
         <v>32.45932575975218</v>
@@ -6461,10 +6463,10 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521507</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L29" t="n">
         <v>519.4894913528326</v>
@@ -6476,37 +6478,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O29" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P29" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q29" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T29" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U29" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V29" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W29" t="n">
-        <v>1622.966287987609</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X29" t="n">
-        <v>1249.500529726529</v>
+        <v>896.7318744564157</v>
       </c>
       <c r="Y29" t="n">
-        <v>859.3611977507176</v>
+        <v>506.5925424806039</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>447.909758240274</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C30" t="n">
-        <v>273.456728959147</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D30" t="n">
-        <v>273.456728959147</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E30" t="n">
-        <v>273.456728959147</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F30" t="n">
-        <v>250.2070755734487</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975218</v>
@@ -6543,19 +6545,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K30" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L30" t="n">
-        <v>505.948365158507</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M30" t="n">
-        <v>905.36650176277</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.050658039703</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O30" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P30" t="n">
         <v>1622.966287987609</v>
@@ -6564,28 +6566,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T30" t="n">
-        <v>1541.568727888341</v>
+        <v>1508.3316234539</v>
       </c>
       <c r="U30" t="n">
-        <v>1313.366060425819</v>
+        <v>1280.128955991378</v>
       </c>
       <c r="V30" t="n">
-        <v>1078.213952194076</v>
+        <v>1044.976847759636</v>
       </c>
       <c r="W30" t="n">
-        <v>823.9765954658749</v>
+        <v>790.739491031434</v>
       </c>
       <c r="X30" t="n">
-        <v>616.1250952603421</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y30" t="n">
-        <v>616.1250952603421</v>
+        <v>375.1276920609472</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1455.88642825341</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C31" t="n">
-        <v>1455.88642825341</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D31" t="n">
-        <v>1455.88642825341</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E31" t="n">
-        <v>1455.88642825341</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F31" t="n">
-        <v>1455.88642825341</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G31" t="n">
         <v>1294.179012144411</v>
@@ -6643,28 +6645,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R31" t="n">
-        <v>1455.88642825341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S31" t="n">
-        <v>1455.88642825341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T31" t="n">
-        <v>1455.88642825341</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="U31" t="n">
-        <v>1455.88642825341</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="V31" t="n">
-        <v>1455.88642825341</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="W31" t="n">
-        <v>1455.88642825341</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="X31" t="n">
-        <v>1455.88642825341</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1455.88642825341</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>442.299297473795</v>
+        <v>506.5925424806039</v>
       </c>
       <c r="C32" t="n">
-        <v>442.299297473795</v>
+        <v>506.5925424806039</v>
       </c>
       <c r="D32" t="n">
-        <v>442.299297473795</v>
+        <v>506.5925424806039</v>
       </c>
       <c r="E32" t="n">
-        <v>442.299297473795</v>
+        <v>506.5925424806039</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975219</v>
+        <v>506.5925424806039</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975219</v>
+        <v>96.75257076656118</v>
       </c>
       <c r="H32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521507</v>
       </c>
       <c r="K32" t="n">
         <v>247.3580469011319</v>
@@ -6707,43 +6709,43 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O32" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P32" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T32" t="n">
-        <v>1592.504227774808</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U32" t="n">
-        <v>1592.504227774808</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V32" t="n">
-        <v>1592.504227774808</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W32" t="n">
-        <v>1592.504227774808</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X32" t="n">
-        <v>1219.038469513729</v>
+        <v>896.7318744564157</v>
       </c>
       <c r="Y32" t="n">
-        <v>828.8991375379168</v>
+        <v>506.5925424806039</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>321.5470195745886</v>
+        <v>366.1498100463347</v>
       </c>
       <c r="C33" t="n">
-        <v>147.0939902934616</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D33" t="n">
-        <v>147.0939902934616</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L33" t="n">
-        <v>147.3709770270845</v>
+        <v>256.6067387278472</v>
       </c>
       <c r="M33" t="n">
-        <v>546.7891136313475</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N33" t="n">
-        <v>948.4732699082808</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O33" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
@@ -6810,19 +6812,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U33" t="n">
-        <v>1394.763620525088</v>
+        <v>1439.366410996834</v>
       </c>
       <c r="V33" t="n">
-        <v>1159.611512293345</v>
+        <v>1204.214302765091</v>
       </c>
       <c r="W33" t="n">
-        <v>905.3741555651434</v>
+        <v>949.9769460368893</v>
       </c>
       <c r="X33" t="n">
-        <v>697.5226553596106</v>
+        <v>742.1254458313565</v>
       </c>
       <c r="Y33" t="n">
-        <v>489.7623565946566</v>
+        <v>534.3651470664026</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.966287987609</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V34" t="n">
-        <v>1583.596182181372</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>779.1076971866441</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="C35" t="n">
-        <v>779.1076971866441</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="D35" t="n">
-        <v>779.1076971866441</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E35" t="n">
-        <v>779.1076971866441</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1076971866441</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G35" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I35" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K35" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O35" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P35" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q35" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1483.636342791295</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U35" t="n">
-        <v>1483.636342791295</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V35" t="n">
-        <v>1152.573455447724</v>
+        <v>1526.799409611739</v>
       </c>
       <c r="W35" t="n">
-        <v>1152.573455447724</v>
+        <v>1174.030754341625</v>
       </c>
       <c r="X35" t="n">
-        <v>779.1076971866441</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="Y35" t="n">
-        <v>779.1076971866441</v>
+        <v>800.5649960805454</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>596.9562420712564</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C36" t="n">
-        <v>566.5011249724407</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D36" t="n">
-        <v>417.5667153111894</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E36" t="n">
-        <v>258.3292603057339</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F36" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G36" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H36" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I36" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J36" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K36" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L36" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M36" t="n">
-        <v>729.6092173456784</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N36" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O36" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q36" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
         <v>1455.464052945775</v>
       </c>
       <c r="T36" t="n">
-        <v>1254.561044051269</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U36" t="n">
-        <v>1254.561044051269</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V36" t="n">
-        <v>1019.408935819526</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W36" t="n">
-        <v>765.1715790913245</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X36" t="n">
-        <v>765.1715790913245</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y36" t="n">
-        <v>765.1715790913245</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C37" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D37" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E37" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F37" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G37" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H37" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L37" t="n">
         <v>107.0302722280248</v>
@@ -7120,25 +7122,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>361.2466016029501</v>
+        <v>139.6199360758255</v>
       </c>
       <c r="T37" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U37" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V37" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W37" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X37" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1210.404967794588</v>
+        <v>506.5925424806037</v>
       </c>
       <c r="C38" t="n">
-        <v>1210.404967794588</v>
+        <v>506.5925424806037</v>
       </c>
       <c r="D38" t="n">
-        <v>852.1392691878377</v>
+        <v>506.5925424806037</v>
       </c>
       <c r="E38" t="n">
-        <v>852.1392691878377</v>
+        <v>506.5925424806037</v>
       </c>
       <c r="F38" t="n">
-        <v>442.299297473795</v>
+        <v>506.5925424806037</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975219</v>
+        <v>96.75257076656089</v>
       </c>
       <c r="H38" t="n">
         <v>32.45932575975219</v>
@@ -7172,22 +7174,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521474</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011316</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528323</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O38" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P38" t="n">
         <v>1569.862809315274</v>
@@ -7211,13 +7213,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W38" t="n">
-        <v>1600.5442997704</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X38" t="n">
-        <v>1600.5442997704</v>
+        <v>896.7318744564154</v>
       </c>
       <c r="Y38" t="n">
-        <v>1210.404967794588</v>
+        <v>506.5925424806037</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>275.1116607907899</v>
+        <v>960.0656235999472</v>
       </c>
       <c r="C39" t="n">
-        <v>100.6586315096629</v>
+        <v>785.6125943188202</v>
       </c>
       <c r="D39" t="n">
-        <v>100.6586315096629</v>
+        <v>636.678184657569</v>
       </c>
       <c r="E39" t="n">
-        <v>100.6586315096629</v>
+        <v>477.4407296521135</v>
       </c>
       <c r="F39" t="n">
-        <v>100.6586315096629</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G39" t="n">
-        <v>100.6586315096629</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H39" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975219</v>
@@ -7254,16 +7256,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K39" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L39" t="n">
-        <v>256.6067387278471</v>
+        <v>256.6067387278474</v>
       </c>
       <c r="M39" t="n">
-        <v>656.0248753321101</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.709031609043</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O39" t="n">
         <v>1380.722538783602</v>
@@ -7275,28 +7277,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T39" t="n">
-        <v>1173.163483952</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U39" t="n">
-        <v>944.9608164894784</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="V39" t="n">
-        <v>944.9608164894784</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="W39" t="n">
-        <v>690.7234597612767</v>
+        <v>1167.825922364901</v>
       </c>
       <c r="X39" t="n">
-        <v>482.8719595557438</v>
+        <v>1167.825922364901</v>
       </c>
       <c r="Y39" t="n">
-        <v>275.1116607907899</v>
+        <v>960.0656235999472</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.5621133970633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C40" t="n">
-        <v>106.5621133970633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D40" t="n">
-        <v>106.5621133970633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E40" t="n">
-        <v>106.5621133970633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="F40" t="n">
-        <v>106.5621133970633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="G40" t="n">
-        <v>32.45932575975219</v>
+        <v>1455.671151542185</v>
       </c>
       <c r="H40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191286</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L40" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M40" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N40" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V40" t="n">
-        <v>106.5621133970633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W40" t="n">
-        <v>106.5621133970633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X40" t="n">
-        <v>106.5621133970633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y40" t="n">
-        <v>106.5621133970633</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>493.4584606775617</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C41" t="n">
-        <v>493.4584606775617</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D41" t="n">
-        <v>135.1927620708112</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E41" t="n">
-        <v>135.1927620708112</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F41" t="n">
-        <v>135.1927620708112</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G41" t="n">
-        <v>135.1927620708112</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H41" t="n">
-        <v>135.1927620708112</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975219</v>
@@ -7412,13 +7414,13 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
@@ -7448,13 +7450,13 @@
         <v>1622.966287987609</v>
       </c>
       <c r="W41" t="n">
-        <v>1270.197632717495</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="X41" t="n">
-        <v>1270.197632717495</v>
+        <v>1178.161014740097</v>
       </c>
       <c r="Y41" t="n">
-        <v>880.0583007416835</v>
+        <v>788.0216827642857</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>536.0020001277505</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C42" t="n">
-        <v>361.5489708466235</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D42" t="n">
-        <v>212.6145611853723</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E42" t="n">
-        <v>212.6145611853723</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F42" t="n">
-        <v>212.6145611853723</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G42" t="n">
-        <v>74.20218794454252</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H42" t="n">
         <v>32.45932575975219</v>
@@ -7494,13 +7496,13 @@
         <v>236.9655055809358</v>
       </c>
       <c r="L42" t="n">
-        <v>256.6067387278471</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M42" t="n">
-        <v>656.0248753321101</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N42" t="n">
-        <v>1057.709031609043</v>
+        <v>1335.799553443796</v>
       </c>
       <c r="O42" t="n">
         <v>1380.722538783602</v>
@@ -7512,28 +7514,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T42" t="n">
-        <v>1374.066492846507</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U42" t="n">
-        <v>1374.066492846507</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V42" t="n">
-        <v>1374.066492846507</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W42" t="n">
-        <v>1119.829136118305</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X42" t="n">
-        <v>911.9776359127725</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y42" t="n">
-        <v>704.2173371478186</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="43">
@@ -7543,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.45932575975219</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="C43" t="n">
         <v>32.45932575975219</v>
@@ -7597,22 +7599,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>32.45932575975219</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V43" t="n">
-        <v>32.45932575975219</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="W43" t="n">
-        <v>32.45932575975219</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="X43" t="n">
-        <v>32.45932575975219</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.45932575975219</v>
+        <v>106.5621133970633</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>852.1392691878377</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="C44" t="n">
-        <v>852.1392691878377</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D44" t="n">
-        <v>852.1392691878377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E44" t="n">
-        <v>852.1392691878377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F44" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G44" t="n">
         <v>32.45932575975219</v>
@@ -7646,16 +7648,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521474</v>
       </c>
       <c r="K44" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011316</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528323</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7676,22 +7678,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T44" t="n">
-        <v>1496.115484231395</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U44" t="n">
-        <v>1242.278601163649</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V44" t="n">
-        <v>1242.278601163649</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W44" t="n">
-        <v>1242.278601163649</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X44" t="n">
-        <v>1242.278601163649</v>
+        <v>1536.426713346848</v>
       </c>
       <c r="Y44" t="n">
-        <v>852.1392691878377</v>
+        <v>1146.287381371036</v>
       </c>
     </row>
     <row r="45">
@@ -7701,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>207.4617876008817</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C45" t="n">
-        <v>33.00875831975466</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D45" t="n">
         <v>32.45932575975219</v>
@@ -7731,7 +7733,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="L45" t="n">
-        <v>330.1910807414154</v>
+        <v>256.6067387278471</v>
       </c>
       <c r="M45" t="n">
         <v>656.0248753321101</v>
@@ -7749,28 +7751,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1541.568727888341</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T45" t="n">
-        <v>1340.665718993834</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U45" t="n">
-        <v>1112.463051531313</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V45" t="n">
-        <v>877.31094329957</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W45" t="n">
-        <v>623.0735865713684</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X45" t="n">
-        <v>415.2220863658356</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y45" t="n">
-        <v>207.4617876008817</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="46">
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,7 +8072,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8298,7 +8300,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>186.173573874842</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>400.7426633853979</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>67.58604940343855</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9003,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026374</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>281.0382923213828</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304796</v>
+        <v>241.3813618149015</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9252,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304798</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O18" t="n">
-        <v>357.653458033554</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L21" t="n">
-        <v>70.10119885733474</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304797</v>
+        <v>241.381361814901</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>119.5777639440803</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9719,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079359</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>203.2271928126418</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L27" t="n">
-        <v>70.10119885733472</v>
+        <v>296.5127271079358</v>
       </c>
       <c r="M27" t="n">
-        <v>375.2055399582308</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>455.0874215304796</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10193,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10203,10 +10205,10 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O30" t="n">
-        <v>142.0020905588914</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q30" t="n">
         <v>99.73813450275541</v>
@@ -10431,13 +10433,13 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L33" t="n">
-        <v>186.1735738748421</v>
+        <v>296.5127271079358</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>86.93262649026374</v>
@@ -10671,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>251.9990040344213</v>
       </c>
       <c r="N36" t="n">
-        <v>380.7598033349567</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720734</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10902,10 +10904,10 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L39" t="n">
-        <v>118.9801165856208</v>
+        <v>296.5127271079359</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.7381345027554</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928322</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11142,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>89.94082829865931</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,7 +11153,7 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>112.9628022719294</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720734</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11379,10 +11381,10 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079357</v>
       </c>
       <c r="M45" t="n">
-        <v>391.3774455544764</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>455.0874215304797</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22629,10 +22631,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>28.88219696018795</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22641,13 +22643,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>83.06541589981077</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22723,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22744,7 +22746,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C5" t="n">
         <v>124.2586028933485</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22860,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>74.55281469834563</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22920,13 +22922,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>48.16969849197108</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23069,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T8" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>10.33136403017744</v>
@@ -23106,19 +23108,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>46.54181869406248</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>170.365719729939</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23203,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>130.2684670434958</v>
+        <v>152.5379588693787</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23264,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23273,10 +23275,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>54.61374593129921</v>
       </c>
       <c r="I11" t="n">
-        <v>103.1038002878408</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23334,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23355,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23391,10 +23393,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>210.7854599573486</v>
       </c>
       <c r="V12" t="n">
-        <v>25.80234166145294</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23461,19 +23463,19 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>219.4103988718534</v>
+        <v>59.320056923945</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U13" t="n">
-        <v>212.9428526967575</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23498,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>1.134473744809156</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7135041305339</v>
+        <v>238.8679634082565</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>123.9743297613965</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>46.92923114703731</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>111.6529744195642</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23668,13 +23670,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
-        <v>56.55224943852478</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082893</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23750,7 +23752,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>70.41439893299157</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0942155799726</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23814,10 +23816,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>33.95674767626646</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>153.4138325635203</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23826,10 +23828,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827553</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
         <v>165.8272126914158</v>
@@ -23865,7 +23867,7 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23941,19 +23943,19 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>153.4545059283734</v>
+        <v>152.3478956280992</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>187.7594695105699</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.33187729742336</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>247.3147942914947</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24066,7 +24068,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>84.69968995873803</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>38.05231206067418</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.6371895548669</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,13 +24177,13 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>120.7272614763987</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>1.134473744809043</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>151.1371946130521</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
@@ -24257,22 +24259,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>156.8661678662991</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>136.9977132395294</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>78.52437462028939</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24351,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24385,7 +24387,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
-        <v>74.67247646141476</v>
+        <v>1.310716700477158</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24415,13 +24417,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T25" t="n">
-        <v>187.6214750622408</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>97.77772203242441</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24500,10 +24502,10 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>247.3147942914947</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,16 +24530,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>17.10010659499956</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24585,10 +24587,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>189.6123666038001</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>9.474087561072281</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>159.8772180037952</v>
@@ -24649,7 +24651,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T28" t="n">
         <v>226.8162656893113</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>112.4956491391822</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24692,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>344.0873842939664</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>229.321322933085</v>
       </c>
       <c r="I29" t="n">
         <v>187.7594695105699</v>
@@ -24740,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24768,16 +24770,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>122.0520555415426</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>85.40566091718961</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>7.636327599302035</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
         <v>159.8772180037952</v>
@@ -24883,19 +24885,19 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>153.4545059283735</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,13 +24928,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>269.7900031589797</v>
       </c>
       <c r="I32" t="n">
         <v>187.7594695105699</v>
@@ -24968,7 +24970,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>190.3590408123669</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
         <v>251.2985142370684</v>
@@ -24977,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25002,7 +25004,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>44.15676256702865</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25050,7 +25052,7 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>44.15676256702881</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25126,16 +25128,16 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8162656893113</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>213.1612385756534</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25157,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,10 +25168,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>8.971932133631526</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
         <v>187.7594695105699</v>
@@ -25205,16 +25207,16 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>82.57983467868812</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>232.5470488780238</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25230,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>142.5579330604882</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.0282495084215</v>
@@ -25251,7 +25253,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25284,10 +25286,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>84.69968995873803</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25296,10 +25298,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25330,7 +25332,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I37" t="n">
-        <v>108.3071674310103</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J37" t="n">
         <v>74.67247646141476</v>
@@ -25360,13 +25362,13 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8162656893113</v>
+        <v>120.7272614763987</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25394,19 +25396,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>8.971932133631583</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>269.79000315898</v>
       </c>
       <c r="I38" t="n">
         <v>187.7594695105699</v>
@@ -25451,10 +25453,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>327.0432003823757</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25473,22 +25475,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>29.29851726811705</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>41.67330972019975</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25533,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25561,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>94.36490978627245</v>
+        <v>2.10448446623991</v>
       </c>
       <c r="H40" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
         <v>165.4090611368575</v>
@@ -25606,7 +25608,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25646,7 +25648,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>86.05336756262147</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25688,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>278.6148488808453</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25719,10 +25721,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>67.86518884966894</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -25752,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>84.69968995873785</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>93.88506133768988</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25837,13 +25839,13 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>187.6214750622408</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
@@ -25916,10 +25918,10 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>94.93418470438799</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>284.0569217841152</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25947,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>146.9011273302363</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>84.69968995873768</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>432255.9283617517</v>
+        <v>432255.9283617518</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>432255.9283617517</v>
+        <v>432255.9283617516</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>546885.7060117438</v>
+        <v>546885.7060117442</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>546885.7060117442</v>
+        <v>546885.7060117441</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>546885.706011744</v>
+        <v>546885.7060117439</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>546885.7060117439</v>
+        <v>546885.7060117441</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>546885.706011744</v>
+        <v>546885.7060117439</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>546885.706011744</v>
+        <v>546885.7060117441</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>546885.7060117442</v>
+        <v>546885.7060117441</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>546885.7060117438</v>
+        <v>546885.7060117441</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>546885.7060117439</v>
+        <v>546885.7060117441</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>546885.7060117439</v>
+        <v>546885.7060117443</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>546885.706011744</v>
+        <v>546885.7060117439</v>
       </c>
     </row>
     <row r="16">
@@ -26314,25 +26316,25 @@
         <v>182776.7397844656</v>
       </c>
       <c r="C2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="D2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="E2" t="n">
+        <v>234991.7867710672</v>
+      </c>
+      <c r="F2" t="n">
+        <v>234991.7867710672</v>
+      </c>
+      <c r="G2" t="n">
         <v>234991.7867710671</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>234991.7867710672</v>
+      </c>
+      <c r="I2" t="n">
         <v>234991.7867710671</v>
-      </c>
-      <c r="G2" t="n">
-        <v>234991.7867710672</v>
-      </c>
-      <c r="H2" t="n">
-        <v>234991.7867710671</v>
-      </c>
-      <c r="I2" t="n">
-        <v>234991.7867710672</v>
       </c>
       <c r="J2" t="n">
         <v>234991.7867710671</v>
@@ -26341,16 +26343,16 @@
         <v>234991.7867710672</v>
       </c>
       <c r="L2" t="n">
-        <v>234991.7867710671</v>
+        <v>234991.7867710672</v>
       </c>
       <c r="M2" t="n">
         <v>234991.7867710672</v>
       </c>
       <c r="N2" t="n">
+        <v>234991.7867710671</v>
+      </c>
+      <c r="O2" t="n">
         <v>234991.7867710672</v>
-      </c>
-      <c r="O2" t="n">
-        <v>234991.7867710671</v>
       </c>
       <c r="P2" t="n">
         <v>234991.7867710672</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.6978624479</v>
+        <v>41050.69786244792</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>33649.84678425771</v>
       </c>
       <c r="C4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="D4" t="n">
         <v>33649.84678425771</v>
       </c>
       <c r="E4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="F4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="G4" t="n">
         <v>34482.31175973668</v>
       </c>
       <c r="H4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="I4" t="n">
         <v>34482.31175973668</v>
       </c>
       <c r="J4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="K4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="L4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="M4" t="n">
         <v>34482.31175973668</v>
       </c>
       <c r="N4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="O4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
       <c r="P4" t="n">
-        <v>34482.31175973667</v>
+        <v>34482.31175973668</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375757</v>
       </c>
       <c r="H5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="I5" t="n">
         <v>27864.35291375757</v>
@@ -26497,10 +26499,10 @@
         <v>27864.35291375756</v>
       </c>
       <c r="L5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="M5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="N5" t="n">
         <v>27864.35291375757</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20076.19270489852</v>
+        <v>20076.1927048985</v>
       </c>
       <c r="C6" t="n">
         <v>100845.6242364463</v>
@@ -26528,16 +26530,16 @@
         <v>100845.6242364463</v>
       </c>
       <c r="E6" t="n">
-        <v>5704.951972326118</v>
+        <v>5704.951972326162</v>
       </c>
       <c r="F6" t="n">
         <v>172645.1220975729</v>
       </c>
       <c r="G6" t="n">
-        <v>172645.1220975729</v>
+        <v>172645.1220975728</v>
       </c>
       <c r="H6" t="n">
-        <v>172645.1220975729</v>
+        <v>172645.122097573</v>
       </c>
       <c r="I6" t="n">
         <v>172645.1220975729</v>
@@ -26549,19 +26551,19 @@
         <v>172645.122097573</v>
       </c>
       <c r="L6" t="n">
+        <v>172645.122097573</v>
+      </c>
+      <c r="M6" t="n">
+        <v>131594.4242351251</v>
+      </c>
+      <c r="N6" t="n">
         <v>172645.1220975728</v>
       </c>
-      <c r="M6" t="n">
-        <v>131594.424235125</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>172645.122097573</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>172645.1220975729</v>
-      </c>
-      <c r="P6" t="n">
-        <v>172645.122097573</v>
       </c>
     </row>
   </sheetData>
@@ -26771,7 +26773,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="N3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="O3" t="n">
         <v>146.5718044195371</v>
@@ -26799,7 +26801,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="F4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G4" t="n">
         <v>405.7415719969023</v>
@@ -26808,7 +26810,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="I4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="J4" t="n">
         <v>405.7415719969023</v>
@@ -26820,7 +26822,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="M4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="N4" t="n">
         <v>405.7415719969023</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O12" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31932,7 +31934,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31941,16 +31943,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I14" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32068,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O15" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H16" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J16" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
         <v>39.29566048323129</v>
@@ -32169,7 +32171,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P16" t="n">
         <v>31.96707026225442</v>
@@ -32178,16 +32180,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I17" t="n">
-        <v>22.71642005983598</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01044697629218</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K17" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L17" t="n">
-        <v>92.98544734044657</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M17" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N17" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S17" t="n">
-        <v>13.42715575159879</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T17" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32305,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H18" t="n">
-        <v>3.044821823885099</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K18" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100587</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P18" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R18" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483453</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H19" t="n">
-        <v>2.349954503644381</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177515</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J19" t="n">
-        <v>18.68670365525801</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K19" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L19" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M19" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N19" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O19" t="n">
-        <v>37.35899041172068</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P19" t="n">
-        <v>31.96707026225441</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q19" t="n">
         <v>22.13234246735009</v>
       </c>
       <c r="R19" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S19" t="n">
-        <v>4.606199165118889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I20" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L20" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M20" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N20" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T20" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32542,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K21" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R21" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
@@ -32619,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J22" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
         <v>39.29566048323129</v>
@@ -32643,7 +32645,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
         <v>31.96707026225442</v>
@@ -32652,16 +32654,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33883,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I38" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L38" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438474</v>
@@ -33907,16 +33909,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R38" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S38" t="n">
         <v>13.4271557515988</v>
@@ -33925,7 +33927,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,46 +33967,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H39" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J39" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M39" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R39" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T39" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,40 +34046,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I40" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J40" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K40" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L40" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M40" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O40" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R40" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S40" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T40" t="n">
         <v>1.129323738970203</v>
@@ -34708,7 +34710,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34781,7 +34783,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,7 +34792,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -35018,7 +35020,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35428,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L12" t="n">
-        <v>116.0723750175073</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366293</v>
+        <v>338.4902628720272</v>
       </c>
       <c r="N12" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
-        <v>326.276269873291</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>244.6906557616239</v>
@@ -35568,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35665,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,10 +35734,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>218.7858918080121</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969023</v>
+        <v>192.0355122813241</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
@@ -35805,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P16" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K17" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L17" t="n">
         <v>274.8802469209098</v>
@@ -35893,7 +35895,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N17" t="n">
-        <v>313.0722467132386</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O17" t="n">
         <v>249.9811662707763</v>
@@ -35902,7 +35904,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696145</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223148</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969023</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O18" t="n">
-        <v>290.0674086301154</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354741</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M19" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962314</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P19" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K20" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L20" t="n">
         <v>274.8802469209098</v>
@@ -36139,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696146</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366292</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969023</v>
+        <v>192.0355122813236</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
@@ -36218,7 +36220,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>19.8396294413249</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L22" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M22" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N22" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P22" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506012</v>
       </c>
       <c r="M24" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>153.8813432790645</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>226.4115282506011</v>
       </c>
       <c r="M27" t="n">
-        <v>312.9531394448602</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
         <v>405.7415719969023</v>
@@ -36692,7 +36694,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
@@ -36923,10 +36925,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
-        <v>74.41604115545286</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>116.0723750175074</v>
+        <v>226.4115282506011</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366293</v>
@@ -37166,7 +37168,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>403.4526632366293</v>
+        <v>189.7466035210507</v>
       </c>
       <c r="N36" t="n">
-        <v>331.4139538013793</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
@@ -37403,7 +37405,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167934</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726433</v>
@@ -37561,7 +37563,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>48.87891772828608</v>
+        <v>226.4115282506012</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366293</v>
@@ -37637,7 +37639,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L40" t="n">
         <v>66.88568574354744</v>
@@ -37713,10 +37715,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O40" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P40" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>274.8802469209098</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6315268094068</v>
+        <v>322.6315268094071</v>
       </c>
       <c r="N41" t="n">
         <v>313.0722467132387</v>
@@ -37862,7 +37864,7 @@
         <v>177.5326105223149</v>
       </c>
       <c r="L42" t="n">
-        <v>19.83962944132461</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366293</v>
@@ -37871,7 +37873,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
-        <v>326.276269873291</v>
+        <v>45.37675286849093</v>
       </c>
       <c r="P42" t="n">
         <v>244.690655761624</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167934</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726433</v>
@@ -38099,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>300.7391464461244</v>
+        <v>226.411528250601</v>
       </c>
       <c r="M45" t="n">
-        <v>329.1250450411058</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N45" t="n">
         <v>405.7415719969023</v>
